--- a/sssom-mappings/tables/bp_sssom.xlsx
+++ b/sssom-mappings/tables/bp_sssom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/sssom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/sssom-mappings/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F1778F-7477-3D4F-92BB-14BF2C5EB444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8847B6-7A88-8649-8549-5ADF274D6CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23900" windowHeight="21440" xr2:uid="{A7ED2088-67B6-4343-9C05-083258E1C6E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30960" windowHeight="21440" xr2:uid="{A7ED2088-67B6-4343-9C05-083258E1C6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="blood_pressure" sheetId="1" r:id="rId1"/>
@@ -506,15 +506,15 @@
     <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
@@ -679,10 +679,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -691,13 +691,13 @@
         <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -717,13 +717,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>16</v>
@@ -731,10 +731,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
@@ -749,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -769,13 +769,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>16</v>
